--- a/biology/Histoire de la zoologie et de la botanique/George_Frederick_Matthew/George_Frederick_Matthew.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Frederick_Matthew/George_Frederick_Matthew.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Frederick Matthew (12 août 1837 - 14 avril 1923) est un botaniste et géologue canadien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Qualifié de géologue amateur, il est pourtant reconnu pour ses travaux dans le domaine alors naissant de l'ichnologie. Son travail se développe à partir de l'étude des roches cambro-ordoviciennes près de son lieu de naissance, menant à la description de nouveaux genres et espèces d'ichnofossiles. Son intérêt précoce pour la géologie a peut-être été inspiré par l'accès local à la collection géologique d'Abraham Gesner.
 Matthew est le premier conservateur de la Société d'histoire naturelle du Nouveau-Brunswick. Après la Confédération du Canada en 1867, ses travaux géologiques prennent de l'importance lorsque la Commission géologique du Canada commence, et il travaille à temps partiel pour l'enquête.
@@ -544,7 +558,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1871. Sur la géologie de surface du Nouveau-Brunswick . 19 p.
 1882. Illustrations de la faune du groupe de Saint-Jean microforme . 21 p. Trans. Société Royale Canada. (ISBN 0-665-27383-5)
